--- a/projects/va_emerging_tech/data/emissionLimit_decarb_na.xlsx
+++ b/projects/va_emerging_tech/data/emissionLimit_decarb_na.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF4E76-A6F8-47DA-B18C-F8015FB0344F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F41ABC-AB88-4984-986D-5A13AE844D1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,12 +79,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +394,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,8 +454,8 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>1000000</v>
+      <c r="C4" s="4">
+        <v>23800</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -462,7 +469,8 @@
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>1000000</v>
+        <f>C4</f>
+        <v>23800</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -476,7 +484,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>1000000</v>
+        <f>C5</f>
+        <v>23800</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -490,7 +499,8 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1000000</v>
+        <f>C6</f>
+        <v>23800</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -504,7 +514,8 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>1000000</v>
+        <f>C7</f>
+        <v>23800</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -518,7 +529,8 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>1000000</v>
+        <f>C8</f>
+        <v>23800</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
